--- a/DMSNewVSale_2025-12-04_19-59.xlsx
+++ b/DMSNewVSale_2025-12-04_19-59.xlsx
@@ -791,6 +791,15 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -854,10 +863,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>94.0000</t>
-  </si>
-  <si>
-    <t>47:0</t>
+    <t>48:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -4301,7 +4307,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4311,14 +4317,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4327,14 +4333,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4344,7 +4350,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4373,7 +4379,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4400,21 +4406,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>15</v>
@@ -4426,28 +4432,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>15</v>
@@ -4459,14 +4465,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4476,11 +4482,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>15</v>
@@ -4492,14 +4498,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4509,14 +4515,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4525,14 +4531,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4549,7 +4555,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4582,7 +4588,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>282</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4591,7 +4597,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4608,14 +4614,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,7 +4630,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4641,14 +4647,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>287</v>
-      </c>
-      <c t="s" r="Q100" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4664,7 +4670,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4674,11 +4680,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>15</v>
@@ -4697,7 +4703,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4707,11 +4713,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>15</v>
@@ -4723,14 +4729,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4740,11 +4746,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>15</v>
@@ -4756,14 +4762,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4773,14 +4779,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4789,7 +4795,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4806,14 +4812,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4829,7 +4835,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4839,11 +4845,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>15</v>
@@ -4855,14 +4861,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4872,11 +4878,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>15</v>
@@ -4888,14 +4894,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4905,51 +4911,84 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="109" ht="26.25" customHeight="1">
-      <c r="N109" s="13">
-        <v>11500.442499999999</v>
-      </c>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>300</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>301</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>70</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>17</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>293</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" ht="25.5" customHeight="1">
+      <c r="N110" s="13">
+        <v>11519.272499999999</v>
+      </c>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>302</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>303</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>304</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5468,10 +5507,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="N109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="N110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
